--- a/assets/stages/maps/MapEditor/Room11.xlsx
+++ b/assets/stages/maps/MapEditor/Room11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -35,6 +35,13 @@
     </font>
     <font>
       <name val="等线"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="134"/>
       <family val="3"/>
       <b val="1"/>
@@ -43,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -53,6 +60,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -69,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -77,7 +96,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,8 +482,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -495,10 +520,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L1" s="1" t="n">
         <v>1</v>
@@ -569,34 +594,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>1</v>
@@ -632,31 +657,31 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="1" t="n">
         <v>1</v>
@@ -667,28 +692,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>-1</v>
@@ -697,37 +722,37 @@
         <v>-1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1" t="n">
         <v>2</v>
@@ -736,25 +761,25 @@
         <v>2</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1" t="n">
         <v>1</v>
@@ -765,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>-1</v>
@@ -825,31 +850,31 @@
         <v>-1</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="1" t="n">
         <v>1</v>
@@ -863,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-1</v>
@@ -950,10 +975,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-1</v>
@@ -1048,10 +1073,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -1146,10 +1171,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -1244,7 +1269,7 @@
         <v>-1</v>
       </c>
       <c r="AE8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1" t="n">
         <v>1</v>
@@ -1342,7 +1367,7 @@
         <v>-1</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="1" t="n">
         <v>1</v>
@@ -1353,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>-1</v>
@@ -1425,10 +1450,10 @@
         <v>-1</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>-1</v>
@@ -1440,7 +1465,7 @@
         <v>-1</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1" t="n">
         <v>1</v>
@@ -1451,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-1</v>
@@ -1549,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-1</v>
@@ -1573,10 +1598,10 @@
         <v>-1</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>-1</v>
@@ -1633,7 +1658,7 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="1" t="n">
         <v>1</v>
@@ -1647,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>-1</v>
@@ -1722,16 +1747,16 @@
         <v>-1</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="1" t="n">
         <v>1</v>
@@ -1745,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-1</v>
@@ -1843,73 +1868,73 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>1</v>
@@ -1924,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="1" t="n">
         <v>1</v>
@@ -1941,94 +1966,94 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2039,94 +2064,94 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2152,58 +2177,58 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>1</v>
@@ -2239,7 +2264,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J4 B5:B16 B5:K5 C3:U5 C3:AF4 C4:AD11 C12:AF12 C13:AD16 C17:D17 G6:AE9 G10:AF11 G13:AF13 G15:AE18 J1:J3 K1:K4 Q9:AF9 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AE7:AF8 AE9:AE15 AF11:AF14">
+  <conditionalFormatting sqref="C3:U5 C6:Q7 C8:G16 G6:AE13 G15:X18 H7:P14 Q9:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AC13:AC15 AD15:AE15 AE14:AE15">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2257,8 +2282,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AP14" sqref="AP14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5:AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2276,12 +2301,8 @@
       <c r="G1" s="2" t="n"/>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
-      <c r="J1" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="n">
-        <v>3</v>
-      </c>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
       <c r="M1" s="2" t="n"/>
       <c r="N1" s="2" t="n"/>
@@ -2314,6 +2335,7 @@
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
       <c r="K2" s="1" t="n"/>
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
@@ -2436,8 +2458,12 @@
       <c r="AB5" s="1" t="n"/>
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="1" t="n"/>
-      <c r="AE5" s="1" t="n"/>
-      <c r="AF5" s="2" t="n"/>
+      <c r="AE5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -2470,8 +2496,12 @@
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="n"/>
       <c r="AD6" s="1" t="n"/>
-      <c r="AE6" s="1" t="n"/>
-      <c r="AF6" s="2" t="n"/>
+      <c r="AE6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -2504,8 +2534,12 @@
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n"/>
-      <c r="AE7" s="1" t="n"/>
-      <c r="AF7" s="2" t="n"/>
+      <c r="AE7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -2538,8 +2572,10 @@
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="n"/>
       <c r="AD8" s="1" t="n"/>
-      <c r="AE8" s="1" t="n"/>
-      <c r="AF8" s="2" t="n"/>
+      <c r="AE8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
@@ -2572,7 +2608,9 @@
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="n"/>
       <c r="AD9" s="1" t="n"/>
-      <c r="AE9" s="1" t="n"/>
+      <c r="AE9" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF9" s="2" t="n"/>
     </row>
     <row r="10">
@@ -2606,7 +2644,9 @@
       <c r="AB10" s="1" t="n"/>
       <c r="AC10" s="1" t="n"/>
       <c r="AD10" s="1" t="n"/>
-      <c r="AE10" s="1" t="n"/>
+      <c r="AE10" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF10" s="2" t="n"/>
     </row>
     <row r="11">
@@ -2640,7 +2680,9 @@
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="n"/>
       <c r="AD11" s="1" t="n"/>
-      <c r="AE11" s="1" t="n"/>
+      <c r="AE11" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF11" s="2" t="n"/>
     </row>
     <row r="12">
@@ -2674,7 +2716,9 @@
       <c r="AB12" s="1" t="n"/>
       <c r="AC12" s="1" t="n"/>
       <c r="AD12" s="1" t="n"/>
-      <c r="AE12" s="1" t="n"/>
+      <c r="AE12" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF12" s="2" t="n"/>
     </row>
     <row r="13">
@@ -2708,7 +2752,9 @@
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
       <c r="AD13" s="1" t="n"/>
-      <c r="AE13" s="1" t="n"/>
+      <c r="AE13" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF13" s="2" t="n"/>
     </row>
     <row r="14">
@@ -2742,7 +2788,9 @@
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="1" t="n"/>
+      <c r="AE14" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF14" s="2" t="n"/>
     </row>
     <row r="15">
@@ -2774,18 +2822,22 @@
       <c r="Z15" s="1" t="n"/>
       <c r="AA15" s="1" t="n"/>
       <c r="AB15" s="1" t="n"/>
-      <c r="AC15" s="1" t="n"/>
+      <c r="AC15" s="1" t="n">
+        <v>1.5</v>
+      </c>
       <c r="AD15" s="1" t="n"/>
-      <c r="AE15" s="1" t="n"/>
+      <c r="AE15" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
@@ -2808,9 +2860,13 @@
       <c r="Z16" s="1" t="n"/>
       <c r="AA16" s="1" t="n"/>
       <c r="AB16" s="1" t="n"/>
-      <c r="AC16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AD16" s="1" t="n"/>
-      <c r="AE16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -2818,7 +2874,7 @@
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
+      <c r="E17" s="3" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -2842,9 +2898,13 @@
       <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
       <c r="AB17" s="1" t="n"/>
-      <c r="AC17" s="1" t="n"/>
+      <c r="AC17" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AD17" s="1" t="n"/>
-      <c r="AE17" s="1" t="n"/>
+      <c r="AE17" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF17" s="2" t="n"/>
     </row>
     <row r="18">
@@ -2852,33 +2912,39 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
-      <c r="T18" s="2" t="n"/>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
-      <c r="W18" s="2" t="n"/>
-      <c r="X18" s="2" t="n"/>
-      <c r="Y18" s="2" t="n"/>
-      <c r="Z18" s="2" t="n"/>
-      <c r="AA18" s="2" t="n"/>
-      <c r="AB18" s="2" t="n"/>
-      <c r="AC18" s="2" t="n"/>
-      <c r="AD18" s="2" t="n"/>
-      <c r="AE18" s="2" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="3" t="n"/>
+      <c r="P18" s="3" t="n"/>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="3" t="n"/>
+      <c r="S18" s="3" t="n"/>
+      <c r="T18" s="3" t="n"/>
+      <c r="U18" s="3" t="n"/>
+      <c r="V18" s="3" t="n"/>
+      <c r="W18" s="3" t="n"/>
+      <c r="X18" s="3" t="n"/>
+      <c r="Y18" s="3" t="n"/>
+      <c r="Z18" s="3" t="n"/>
+      <c r="AA18" s="3" t="n"/>
+      <c r="AB18" s="3" t="n"/>
+      <c r="AC18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="AF18" s="2" t="n"/>
     </row>
   </sheetData>

--- a/assets/stages/maps/MapEditor/Room11.xlsx
+++ b/assets/stages/maps/MapEditor/Room11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3456" yWindow="3180" windowWidth="23040" windowHeight="14100" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
@@ -51,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -61,6 +61,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -89,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -97,10 +103,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -483,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -595,34 +604,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>1</v>
@@ -631,25 +640,25 @@
         <v>1</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>1</v>
@@ -658,31 +667,31 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1" t="n">
         <v>1</v>
@@ -693,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>-1</v>
@@ -753,34 +762,34 @@
         <v>-1</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="1" t="n">
         <v>1</v>
@@ -791,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>-1</v>
@@ -851,31 +860,31 @@
         <v>-1</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE4" s="1" t="n">
         <v>1</v>
@@ -889,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-1</v>
@@ -976,10 +985,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-1</v>
@@ -1074,10 +1083,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1085,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-1</v>
@@ -1172,10 +1181,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1183,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>-1</v>
@@ -1207,10 +1216,10 @@
         <v>-1</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>-1</v>
@@ -1281,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-1</v>
@@ -1379,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>-1</v>
@@ -1391,10 +1400,10 @@
         <v>-1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>-1</v>
@@ -1451,10 +1460,10 @@
         <v>-1</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>-1</v>
@@ -1477,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-1</v>
@@ -1543,13 +1552,13 @@
         <v>-1</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>-1</v>
@@ -1575,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-1</v>
@@ -1659,13 +1668,13 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -1673,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>-1</v>
@@ -1691,10 +1700,10 @@
         <v>-1</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>-1</v>
@@ -1748,22 +1757,22 @@
         <v>-1</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1867,10 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -1872,16 +1881,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>-1</v>
@@ -1938,16 +1947,16 @@
         <v>-1</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC15" s="1" t="n">
         <v>-1</v>
@@ -1967,19 +1976,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>-1</v>
@@ -2036,25 +2045,25 @@
         <v>-1</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2065,94 +2074,94 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2178,58 +2187,58 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>1</v>
@@ -2265,7 +2274,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:U5 C6:Q7 C8:G16 G6:AE13 G15:X18 H7:P14 Q9:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AC13:AC15 AD15:AE15 AE14:AE15">
+  <conditionalFormatting sqref="B2:J4 B5:B16 B5:K5 C3:U5 C3:AF4 C4:AD5 C6:AE6 C7:AD7 C8:I8 C9:AF12 C13:AD16 C17:D17 G7:AF8 G13:AF13 G15:AE18 J1:J3 J2:K2 K1:K4 S6:AF7 V5:AF5 Z12:AF14 AE11:AE15 AF11:AF14">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2283,8 +2292,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5:AE7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2459,12 +2468,7 @@
       <c r="AB5" s="1" t="n"/>
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="1" t="n"/>
-      <c r="AE5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF5" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -2497,12 +2501,7 @@
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="n"/>
       <c r="AD6" s="1" t="n"/>
-      <c r="AE6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -2535,12 +2534,7 @@
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n"/>
-      <c r="AE7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -2573,10 +2567,8 @@
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="n"/>
       <c r="AD8" s="1" t="n"/>
-      <c r="AE8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="5" t="n"/>
+      <c r="AE8" s="1" t="n"/>
+      <c r="AF8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
@@ -2609,9 +2601,7 @@
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="n"/>
       <c r="AD9" s="1" t="n"/>
-      <c r="AE9" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE9" s="1" t="n"/>
       <c r="AF9" s="2" t="n"/>
     </row>
     <row r="10">
@@ -2645,9 +2635,7 @@
       <c r="AB10" s="1" t="n"/>
       <c r="AC10" s="1" t="n"/>
       <c r="AD10" s="1" t="n"/>
-      <c r="AE10" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE10" s="1" t="n"/>
       <c r="AF10" s="2" t="n"/>
     </row>
     <row r="11">
@@ -2681,10 +2669,8 @@
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="n"/>
       <c r="AD11" s="1" t="n"/>
-      <c r="AE11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="2" t="n"/>
+      <c r="AE11" s="3" t="n"/>
+      <c r="AF11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
@@ -2717,10 +2703,12 @@
       <c r="AB12" s="1" t="n"/>
       <c r="AC12" s="1" t="n"/>
       <c r="AD12" s="1" t="n"/>
-      <c r="AE12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="2" t="n"/>
+      <c r="AE12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
@@ -2753,10 +2741,12 @@
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
       <c r="AD13" s="1" t="n"/>
-      <c r="AE13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="2" t="n"/>
+      <c r="AE13" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
@@ -2789,15 +2779,19 @@
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="2" t="n"/>
+      <c r="AE14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
+      <c r="C15" s="1" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
@@ -2823,9 +2817,7 @@
       <c r="Z15" s="1" t="n"/>
       <c r="AA15" s="1" t="n"/>
       <c r="AB15" s="1" t="n"/>
-      <c r="AC15" s="1" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="AC15" s="1" t="n"/>
       <c r="AD15" s="1" t="n"/>
       <c r="AE15" s="1" t="n">
         <v>2</v>
@@ -2835,10 +2827,12 @@
     <row r="16">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
@@ -2861,9 +2855,7 @@
       <c r="Z16" s="1" t="n"/>
       <c r="AA16" s="1" t="n"/>
       <c r="AB16" s="1" t="n"/>
-      <c r="AC16" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC16" s="1" t="n"/>
       <c r="AD16" s="1" t="n"/>
       <c r="AE16" s="1" t="n">
         <v>2</v>
@@ -2873,9 +2865,11 @@
     <row r="17">
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
+      <c r="C17" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D17" s="1" t="n"/>
-      <c r="E17" s="3" t="n"/>
+      <c r="E17" s="4" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -2899,9 +2893,7 @@
       <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
       <c r="AB17" s="1" t="n"/>
-      <c r="AC17" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC17" s="1" t="n"/>
       <c r="AD17" s="1" t="n"/>
       <c r="AE17" s="1" t="n">
         <v>2</v>
@@ -2911,39 +2903,91 @@
     <row r="18">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
-      <c r="L18" s="3" t="n"/>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
-      <c r="O18" s="3" t="n"/>
-      <c r="P18" s="3" t="n"/>
-      <c r="Q18" s="3" t="n"/>
-      <c r="R18" s="3" t="n"/>
-      <c r="S18" s="3" t="n"/>
-      <c r="T18" s="3" t="n"/>
-      <c r="U18" s="3" t="n"/>
-      <c r="V18" s="3" t="n"/>
-      <c r="W18" s="3" t="n"/>
-      <c r="X18" s="3" t="n"/>
-      <c r="Y18" s="3" t="n"/>
-      <c r="Z18" s="3" t="n"/>
-      <c r="AA18" s="3" t="n"/>
-      <c r="AB18" s="3" t="n"/>
-      <c r="AC18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="1" t="n">
+      <c r="C18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AF18" s="2" t="n"/>

--- a/assets/stages/maps/MapEditor/Room11.xlsx
+++ b/assets/stages/maps/MapEditor/Room11.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="backgroundObjects" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3032,4 +3033,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/assets/stages/maps/MapEditor/Room11.xlsx
+++ b/assets/stages/maps/MapEditor/Room11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E6E03E-1750-4D99-BE51-BFBBA1C98B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E44D7-1C87-4957-9E60-32C169CC3DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-156" yWindow="-156" windowWidth="31032" windowHeight="17592" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -127,20 +127,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF9C0006"/>
@@ -155,6 +141,20 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,15 +435,15 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S6" sqref="P6:S9"/>
+      <selection activeCell="O12" sqref="O12:T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2210,15 +2210,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AF18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J3 K1:K4 J2:K2 B2:J4 C3:AF4 C3:U5 C4:AD5 B5:K5 V5:AF5 B5:B16 C6:AE6 S6:AF7 C7:AD7 G7:AF8 C8:I8 C9:AF12 AF11:AF14 AE11:AE15 Z12:AF14 G13:AF13 C13:AD16 G15:AE18 C17:D17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2235,12 +2235,12 @@
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2274,7 +2274,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2308,7 +2308,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2342,7 +2342,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2376,7 +2376,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2409,7 +2409,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2442,7 +2442,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2475,7 +2475,7 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2509,7 +2509,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="6"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2543,7 +2543,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2577,7 +2577,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2611,7 +2611,7 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="6"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2649,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2687,7 +2687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2725,7 +2725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
@@ -2940,12 +2940,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="O12:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="12" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2957,7 +3040,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2966,15 +3049,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="P6:S9"/>
+  <dimension ref="O6:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="6" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="15:20" x14ac:dyDescent="0.4">
       <c r="P6">
         <v>-1</v>
       </c>
@@ -2988,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="15:20" x14ac:dyDescent="0.4">
       <c r="P7">
         <v>-1</v>
       </c>
@@ -3002,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="15:20" x14ac:dyDescent="0.4">
       <c r="P8">
         <v>-1</v>
       </c>
@@ -3016,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="16:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="15:20" x14ac:dyDescent="0.4">
       <c r="P9">
         <v>-1</v>
       </c>
@@ -3028,6 +3111,86 @@
       </c>
       <c r="S9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>20</v>
+      </c>
+      <c r="T12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>20</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>20</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+      <c r="R15">
+        <v>20</v>
+      </c>
+      <c r="S15">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
